--- a/write_to_excel.xlsx
+++ b/write_to_excel.xlsx
@@ -7,19 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>NotData</t>
-  </si>
-  <si>
-    <t>hello</t>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -377,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,8 +389,24 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/write_to_excel.xlsx
+++ b/write_to_excel.xlsx
@@ -7,16 +7,82 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Birthday" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>bravo</t>
+  </si>
+  <si>
+    <t>charlie</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>foxtrot</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>kestral</t>
+  </si>
+  <si>
+    <t>12/05/2000</t>
+  </si>
+  <si>
+    <t>15/02/1900</t>
+  </si>
+  <si>
+    <t>15/03/1900</t>
+  </si>
+  <si>
+    <t>15/04/1900</t>
+  </si>
+  <si>
+    <t>15/05/1900</t>
+  </si>
+  <si>
+    <t>15/06/1900</t>
+  </si>
+  <si>
+    <t>15/07/1900</t>
+  </si>
+  <si>
+    <t>15/08/1900</t>
+  </si>
+  <si>
+    <t>15/09/1900</t>
+  </si>
+  <si>
+    <t>15/10/1900</t>
   </si>
 </sst>
 </file>
@@ -374,39 +440,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>30</v>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
